--- a/stage3-day1/Section4_図編集.xlsx
+++ b/stage3-day1/Section4_図編集.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takas\rabbit\rabbit-report\stage3-day1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC078A21-C9F5-4BB3-BE4C-908C5A1FFF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB26AB97-02EF-4150-ACF3-8B36C4885C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="21480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{75B2266E-0D83-4D76-85C5-41479D1057C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{75B2266E-0D83-4D76-85C5-41479D1057C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -46,6 +47,17 @@
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重み</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エポック</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -78,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,17 +113,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -234,8 +265,8 @@
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="587084" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -277,6 +308,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -327,7 +359,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -391,8 +423,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1366838" cy="321370"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="テキスト ボックス 4">
@@ -478,7 +510,7 @@
                     <m:d>
                       <m:dPr>
                         <m:ctrlPr>
-                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -536,7 +568,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="テキスト ボックス 4">
@@ -713,8 +745,8 @@
       <xdr:rowOff>219074</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3128963" cy="361951"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="テキスト ボックス 10">
@@ -868,7 +900,7 @@
                     <m:d>
                       <m:dPr>
                         <m:ctrlPr>
-                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -974,7 +1006,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="テキスト ボックス 10">
@@ -1057,8 +1089,8 @@
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1366838" cy="321370"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="テキスト ボックス 11">
@@ -1144,7 +1176,7 @@
                     <m:d>
                       <m:dPr>
                         <m:ctrlPr>
-                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -1202,7 +1234,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="テキスト ボックス 11">
@@ -1267,8 +1299,8 @@
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1804989" cy="714376"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="テキスト ボックス 12">
@@ -1422,7 +1454,7 @@
                     <m:d>
                       <m:dPr>
                         <m:ctrlPr>
-                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -1543,7 +1575,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="テキスト ボックス 12">
@@ -1630,6 +1662,1996 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66CF9F9-6CA4-4138-98A1-57ABA1B3754E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="933450"/>
+          <a:ext cx="857250" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="101310" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="テキスト ボックス 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B237AC7D-9532-4F04-9B66-68393327FAA3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1662112" y="1219200"/>
+              <a:ext cx="101310" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>t</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="テキスト ボックス 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B237AC7D-9532-4F04-9B66-68393327FAA3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1662112" y="1219200"/>
+              <a:ext cx="101310" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>t</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="700088" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="テキスト ボックス 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAA61D8-313D-498F-AD56-D68E031DE4C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1366837" y="2647950"/>
+              <a:ext cx="700088" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>t</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+1</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="テキスト ボックス 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAA61D8-313D-498F-AD56-D68E031DE4C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1366837" y="2647950"/>
+              <a:ext cx="700088" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>t+1</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="700088" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D224FC-E72D-479D-9E14-2EA204E932BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1366837" y="4076700"/>
+              <a:ext cx="700088" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>t</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+2</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D224FC-E72D-479D-9E14-2EA204E932BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1366837" y="4076700"/>
+              <a:ext cx="700088" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>t+2</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3D1D1D-3F88-40CC-8E94-CA0E15EBDB2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="2314575"/>
+          <a:ext cx="857250" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3641C423-91A5-40BD-8E37-6FDAC2EC1A18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="3838575"/>
+          <a:ext cx="857250" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="700088" cy="220510"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="テキスト ボックス 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D862E8BB-BB76-4E34-B8C6-C845CB36A574}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2728912" y="1228725"/>
+              <a:ext cx="700088" cy="220510"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>w</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>t</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="テキスト ボックス 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D862E8BB-BB76-4E34-B8C6-C845CB36A574}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2728912" y="1228725"/>
+              <a:ext cx="700088" cy="220510"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>w^t</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="700088" cy="220510"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="テキスト ボックス 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8B2E1D-BBEE-4C63-97B2-3D90F1EE5087}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2776537" y="2609850"/>
+              <a:ext cx="700088" cy="220510"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>w</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>t</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+1</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="テキスト ボックス 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8B2E1D-BBEE-4C63-97B2-3D90F1EE5087}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2776537" y="2609850"/>
+              <a:ext cx="700088" cy="220510"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>w^(t</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+1)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="700088" cy="223074"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488E2EDE-5EDC-4000-B097-A3C902FC1451}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2786062" y="4114800"/>
+              <a:ext cx="700088" cy="223074"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>w</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>t</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488E2EDE-5EDC-4000-B097-A3C902FC1451}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2786062" y="4114800"/>
+              <a:ext cx="700088" cy="223074"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>w^(t</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+2)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矢印: 左カーブ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE9CF03-58F4-4D79-ACB6-3422F735A7F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="1571625"/>
+          <a:ext cx="371475" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矢印: 左カーブ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84CCFA5C-6E46-4B4E-826C-9E98BEFDA7CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="3038475"/>
+          <a:ext cx="371475" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="871539" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="テキスト ボックス 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C67018-B637-47C0-866D-DBBFEE84D67E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3929061" y="3362325"/>
+              <a:ext cx="871539" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜀</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∇</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="テキスト ボックス 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C67018-B637-47C0-866D-DBBFEE84D67E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3929061" y="3362325"/>
+              <a:ext cx="871539" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜀∇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐸_(𝑡+1)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509586</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="871539" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="テキスト ボックス 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14E5F0E-5330-4236-8119-6DB65976C56C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3938586" y="1924050"/>
+              <a:ext cx="871539" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜀</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="テキスト ボックス 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14E5F0E-5330-4236-8119-6DB65976C56C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3938586" y="1924050"/>
+              <a:ext cx="871539" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐸〗_𝑡</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="吹き出し: 角を丸めた四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AA80E5-947C-4E40-B567-CFB1A7898AD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933824" y="342900"/>
+          <a:ext cx="2962275" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64874"/>
+            <a:gd name="adj2" fmla="val 151661"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①重み（初期値）で問題を解く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="吹き出し: 角を丸めた四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7974240A-4027-435C-9351-9D3646591CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772024" y="923925"/>
+          <a:ext cx="3314701" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -53427"/>
+            <a:gd name="adj2" fmla="val 126977"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②　①の結果に対して、誤差を求める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="吹き出し: 角を丸めた四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA2E078-180A-4BD4-8978-E1CD39609535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419724" y="1933574"/>
+          <a:ext cx="3095626" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -107757"/>
+            <a:gd name="adj2" fmla="val 36785"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③　①の結果に対して②の誤差を反映した重みを計算する。計算した重みで問題を解く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276223</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="吹き出し: 角を丸めた四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16D1F02-90C5-4DB8-9221-233B1FE1ED2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762623" y="3314700"/>
+          <a:ext cx="3371851" cy="638176"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -77068"/>
+            <a:gd name="adj2" fmla="val -19057"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>④　③の結果に対して、誤差を求める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="吹き出し: 角を丸めた四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BA2292-F76F-4E55-AD1E-BB1DC5F0D4AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876799" y="4152899"/>
+          <a:ext cx="3095626" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -92065"/>
+            <a:gd name="adj2" fmla="val -43013"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③　③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の結果に対して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の誤差を反映した重みを計算する。計算した重みで問題を解く</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2110,7 +4132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D609AF8F-4135-4773-B32E-2CAABF214F10}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -2709,4 +4731,520 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6980B087-478E-421C-99A0-8863F8705527}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>